--- a/mediciones/P07_20150707_16:45_a_18:00.xlsx
+++ b/mediciones/P07_20150707_16:45_a_18:00.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="14">
   <si>
     <t xml:space="preserve">Lugar, día, rango horario:</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve"># Personas en la parada: (N°/C /NC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">más de 40</t>
   </si>
 </sst>
 </file>
@@ -236,14 +233,14 @@
   </sheetPr>
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K94" activeCellId="0" sqref="K94"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,8 +1653,8 @@
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>14</v>
+      <c r="B60" s="4" t="n">
+        <v>45</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>32</v>
@@ -2257,7 +2254,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2283,7 +2280,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
